--- a/public/archivos-testing/sprint 1/casos de prueba.xlsx
+++ b/public/archivos-testing/sprint 1/casos de prueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\final\public\archivos-testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\final\public\archivos-testing\sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>Id</t>
   </si>
@@ -267,6 +267,42 @@
   </si>
   <si>
     <t>Clickear el botón "Ingresar" o "Crear cuenta" en la navbar de la landing page.</t>
+  </si>
+  <si>
+    <t>Regresión</t>
+  </si>
+  <si>
+    <t>Crear cuenta</t>
+  </si>
+  <si>
+    <t>Después de completar el formulario correctamente se debe crear mi cuenta y redirigirme al path "/login"</t>
+  </si>
+  <si>
+    <t>Me redirige al login.</t>
+  </si>
+  <si>
+    <t>Que me redireccione al login.</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>Después de completar el formulario correctamente se debe iniciar sesión.</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Después de clickear el botón "Cerrar sesión" me debe redigir al path "/"</t>
+  </si>
+  <si>
+    <t>Estar logueado</t>
+  </si>
+  <si>
+    <t>Clickear el botón "Cerrar sesión"</t>
+  </si>
+  <si>
+    <t>Se cierre sesión y me redireccione al path "/"</t>
   </si>
 </sst>
 </file>
@@ -575,41 +611,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -617,81 +657,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -932,6 +904,166 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -963,7 +1095,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B12E0C48}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,8 +1323,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1234,30 +1366,30 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="20" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1"/>
@@ -1278,10 +1410,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1291,9 +1423,9 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1312,13 +1444,13 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -1333,13 +1465,13 @@
       <c r="G4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K4" s="1"/>
@@ -1360,18 +1492,18 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="17"/>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1390,18 +1522,18 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="17"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1420,18 +1552,18 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="18"/>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1450,13 +1582,13 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1471,13 +1603,13 @@
       <c r="G8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K8" s="1"/>
@@ -1498,18 +1630,18 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="17"/>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1528,18 +1660,18 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="17"/>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1558,18 +1690,18 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1588,16 +1720,16 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1609,13 +1741,13 @@
       <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="1"/>
@@ -1636,10 +1768,10 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1649,9 +1781,9 @@
       <c r="G13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1670,18 +1802,18 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1700,18 +1832,18 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1730,16 +1862,16 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="22">
         <v>4</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1751,13 +1883,13 @@
       <c r="G16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K16" s="1"/>
@@ -1777,11 +1909,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="45" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+    <row r="17" spans="1:26" s="21" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
@@ -1791,39 +1923,39 @@
       <c r="G17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1842,18 +1974,18 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1872,16 +2004,16 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1893,13 +2025,13 @@
       <c r="G20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K20" s="1"/>
@@ -1920,10 +2052,10 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1933,9 +2065,9 @@
       <c r="G21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1954,18 +2086,18 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1984,18 +2116,18 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2014,16 +2146,16 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <v>6</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -2035,13 +2167,13 @@
       <c r="G24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K24" s="1"/>
@@ -2062,10 +2194,10 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3" t="s">
         <v>12</v>
       </c>
@@ -2075,9 +2207,9 @@
       <c r="G25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2096,18 +2228,18 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2126,18 +2258,18 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2156,16 +2288,16 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="22">
         <v>7</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2177,13 +2309,13 @@
       <c r="G28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K28" s="1"/>
@@ -2204,10 +2336,10 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
@@ -2217,9 +2349,9 @@
       <c r="G29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2238,10 +2370,10 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
@@ -2251,9 +2383,9 @@
       <c r="G30" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2272,18 +2404,18 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2302,16 +2434,16 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+      <c r="A32" s="22">
         <v>8</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2323,13 +2455,13 @@
       <c r="G32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K32" s="1"/>
@@ -2350,10 +2482,10 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
@@ -2363,9 +2495,9 @@
       <c r="G33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2384,10 +2516,10 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
@@ -2397,9 +2529,9 @@
       <c r="G34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2418,18 +2550,22 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="F35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2447,17 +2583,37 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+    <row r="36" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22">
+        <v>9</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2476,16 +2632,22 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2503,17 +2665,23 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+    <row r="38" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2532,16 +2700,22 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2559,17 +2733,37 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+    <row r="40" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="22">
+        <v>10</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2587,17 +2781,23 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+    <row r="41" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2615,17 +2815,23 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+    <row r="42" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2644,16 +2850,18 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2672,16 +2880,36 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="A44" s="22">
+        <v>11</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2700,16 +2928,18 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2728,16 +2958,18 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2756,16 +2988,18 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -29468,50 +29702,31 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
+  <mergeCells count="83">
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="H36:H39"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A4:A7"/>
@@ -29528,155 +29743,255 @@
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="H32:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="H4 H8">
+    <cfRule type="cellIs" dxfId="49" priority="37" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H8">
+    <cfRule type="cellIs" dxfId="48" priority="38" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H8">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H8">
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H8">
+  <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H8">
+  <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H8">
+  <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="H4 H8 H12 H16 H20 H24 H28 H32">
+    <dataValidation type="list" allowBlank="1" sqref="H4 H8 H12 H16 H20 H24 H28 H32 H36 H40 H44">
       <formula1>"TO DO,In Progress,In Review,Reviewed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J4 J8 J12 J16 J20 J24 J28 J32">
+    <dataValidation type="list" allowBlank="1" sqref="J4 J8 J12 J16 J20 J24 J28 J32 J36 J40 J44">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29806,27 +30121,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29960,27 +30275,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30010,605 +30325,605 @@
       <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="40"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="42"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="42"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="26"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="31" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="31" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="26"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="26"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="26"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="26"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="26"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="26"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="26"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="26"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="26"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="26"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="26"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="26"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="26"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="26"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="26"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="26"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="26"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="26"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="26"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="26"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="21"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
@@ -30836,14 +31151,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="B9:K10"/>
-    <mergeCell ref="B11:K12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K39"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="A3:A41"/>
     <mergeCell ref="B3:K3"/>
@@ -30860,16 +31177,14 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B29:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K39"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K27"/>
-    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="B9:K10"/>
+    <mergeCell ref="B11:K12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="G5">
